--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2EBAA9-FEDB-4AA2-A4A8-BC97B3C94904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE5F314-62DB-4B86-A893-4D8DC7DF98C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="208">
   <si>
     <t>setting_name</t>
   </si>
@@ -293,12 +293,6 @@
     <t>MIF_V_OOP</t>
   </si>
   <si>
-    <t>Out of pocket payments</t>
-  </si>
-  <si>
-    <t>Pagamentos</t>
-  </si>
-  <si>
     <t>Você pagou o parto?</t>
   </si>
   <si>
@@ -323,24 +317,12 @@
     <t>OOP_B_SERQ</t>
   </si>
   <si>
-    <t>OOP_B_SERT</t>
-  </si>
-  <si>
     <t>OOP_B_MATQ</t>
   </si>
   <si>
     <t>OOP_B_MATT</t>
   </si>
   <si>
-    <t>data("OOP_B_SERQ") &gt;0</t>
-  </si>
-  <si>
-    <t>Quais serviços?</t>
-  </si>
-  <si>
-    <t>Which services</t>
-  </si>
-  <si>
     <t>data("OOP_B_MATQ") &gt;0</t>
   </si>
   <si>
@@ -365,15 +347,9 @@
     <t xml:space="preserve">Diagnósticos: </t>
   </si>
   <si>
-    <t>Quais Diagnósticos?</t>
-  </si>
-  <si>
     <t>OOP_B_MEDQ</t>
   </si>
   <si>
-    <t>Medicamentos (incl vitaminas)</t>
-  </si>
-  <si>
     <t>Quais medicamentos?</t>
   </si>
   <si>
@@ -383,9 +359,6 @@
     <t>Outros despesas?</t>
   </si>
   <si>
-    <t>Quais</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quanto pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
   </si>
   <si>
@@ -446,9 +419,6 @@
     <t>OOP_B_OUTT</t>
   </si>
   <si>
-    <t xml:space="preserve">text </t>
-  </si>
-  <si>
     <t>REGID</t>
   </si>
   <si>
@@ -459,6 +429,246 @@
   </si>
   <si>
     <t>VISITID</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>Cesariana</t>
+  </si>
+  <si>
+    <t>Ecografia</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>data("OOP_B_SERQ") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>Out of pocket payments Births</t>
+  </si>
+  <si>
+    <t>Pagamentos Nascimentos</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_B_MATT_SEL</t>
+  </si>
+  <si>
+    <t>OOP_B_MATT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Luvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catherter </t>
+  </si>
+  <si>
+    <t>Materias de sutura</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_B_DIAT_SEL</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_SEL") != null</t>
+  </si>
+  <si>
+    <t>OOP_B_DIAT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_B_MEDT_SEL</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_SEL") != null</t>
+  </si>
+  <si>
+    <t>OOP_B_MEDT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>Which materials</t>
+  </si>
+  <si>
+    <t>Quais materias?</t>
+  </si>
+  <si>
+    <t>Outros materiass?</t>
+  </si>
+  <si>
+    <t>Other materials</t>
+  </si>
+  <si>
+    <t>Which diagnostics</t>
+  </si>
+  <si>
+    <t>Quais diagnostics?</t>
+  </si>
+  <si>
+    <t>Other diagnostics</t>
+  </si>
+  <si>
+    <t>Outros diagnostics?</t>
+  </si>
+  <si>
+    <t>Medicine:</t>
+  </si>
+  <si>
+    <t>Medicamentos?</t>
+  </si>
+  <si>
+    <t>Medicines</t>
+  </si>
+  <si>
+    <t>Which drugs</t>
+  </si>
+  <si>
+    <t>Outros medicametos?</t>
+  </si>
+  <si>
+    <t>Other drugs</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTQ") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_B_OUTT_SEL</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_SEL") != null</t>
+  </si>
+  <si>
+    <t>OOP_B_OUTT_OU</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_OU") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTT_OU") =="1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTT") != null || data("OOP_B_OUTT_SEL") != "1"</t>
+  </si>
+  <si>
+    <t>Which other expenses</t>
+  </si>
+  <si>
+    <t>Quais outros despesas?</t>
+  </si>
+  <si>
+    <t>Other expenses</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Analyses de urina</t>
+  </si>
+  <si>
+    <t>Other_expenses</t>
+  </si>
+  <si>
+    <t>Soro</t>
+  </si>
+  <si>
+    <t>Oxytocina (inj. Malgueta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misoprostol </t>
+  </si>
+  <si>
+    <t>Antibiotics</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Cama</t>
+  </si>
+  <si>
+    <t>Limpeza</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDT") != null || data("OOP_B_MEDT_OU") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAT") != null || data("OOP_B_DIAT_OU") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATT") != null || data("OOP_B_MATT_OU") != "1"</t>
+  </si>
+  <si>
+    <t>OOP_B_OBS</t>
+  </si>
+  <si>
+    <t>Observacoes</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>OOP_B_TRAM_OU</t>
+  </si>
+  <si>
+    <t>Transport_other</t>
+  </si>
+  <si>
+    <t>All means of transport covered above</t>
+  </si>
+  <si>
+    <t>Todos meios de transporte incluindo em cima</t>
+  </si>
+  <si>
+    <t>Analyses de sangue</t>
+  </si>
+  <si>
+    <t>Blood test</t>
+  </si>
+  <si>
+    <t>Urine test</t>
+  </si>
+  <si>
+    <t>data("OOP_BIRTH") != null</t>
+  </si>
+  <si>
+    <t>Antibioticos</t>
   </si>
 </sst>
 </file>
@@ -537,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +769,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +809,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -611,6 +833,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -900,7 +1124,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,10 +1186,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -995,7 +1219,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1009,11 +1233,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,12 +1245,12 @@
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.26953125" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="29.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" customWidth="1"/>
     <col min="12" max="12" width="40.453125" customWidth="1"/>
@@ -1114,13 +1338,16 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1134,7 +1361,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -1148,10 +1375,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
@@ -1159,264 +1386,806 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>56</v>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>160</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="G14" t="s">
+      <c r="K15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
         <v>99</v>
       </c>
-      <c r="H14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
-      <c r="D18" t="s">
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="B29" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="16"/>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
         <v>35</v>
       </c>
-      <c r="G31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
         <v>45</v>
       </c>
-      <c r="F32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1428,11 +2197,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1504,273 +2273,579 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B14" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>131</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="8"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="8"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
-      <c r="C57" s="9"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
@@ -1782,25 +2857,22 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="5"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="5"/>
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="5"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="5"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
@@ -1808,6 +2880,7 @@
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
@@ -1817,37 +2890,33 @@
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="5"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="5"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C77" s="7"/>
-    </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="5"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
@@ -1855,6 +2924,9 @@
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
@@ -1866,21 +2938,20 @@
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C87" s="7"/>
-    </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
-      <c r="C88" s="7"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C89" s="7"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C90" s="7"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
@@ -1917,21 +2988,6 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="5"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="5"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="5"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="5"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2134,11 +3190,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2165,7 +3221,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -2174,23 +3230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -2198,7 +3243,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -2209,7 +3254,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -2218,34 +3263,45 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="b">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2253,43 +3309,54 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="b">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2297,10 +3364,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>127</v>
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2308,10 +3375,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2319,10 +3386,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2330,12 +3397,100 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="b">
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE5F314-62DB-4B86-A893-4D8DC7DF98C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F146D1-548D-48E8-9CA9-E37B7784FBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -464,12 +464,6 @@
     <t>data("OOP_B_MATT_OU") =="1"</t>
   </si>
   <si>
-    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_OU") != null</t>
-  </si>
-  <si>
-    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null</t>
-  </si>
-  <si>
     <t>Materials</t>
   </si>
   <si>
@@ -491,15 +485,9 @@
     <t>OOP_B_DIAT_SEL</t>
   </si>
   <si>
-    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_SEL") != null</t>
-  </si>
-  <si>
     <t>OOP_B_DIAT_OU</t>
   </si>
   <si>
-    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_OU") != null</t>
-  </si>
-  <si>
     <t>data("OOP_B_DIAT_OU") =="1"</t>
   </si>
   <si>
@@ -509,15 +497,9 @@
     <t>OOP_B_MEDT_SEL</t>
   </si>
   <si>
-    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_SEL") != null</t>
-  </si>
-  <si>
     <t>OOP_B_MEDT_OU</t>
   </si>
   <si>
-    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_OU") != null</t>
-  </si>
-  <si>
     <t>data("OOP_B_MEDT_OU") =="1"</t>
   </si>
   <si>
@@ -569,15 +551,9 @@
     <t>OOP_B_OUTT_SEL</t>
   </si>
   <si>
-    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_SEL") != null</t>
-  </si>
-  <si>
     <t>OOP_B_OUTT_OU</t>
   </si>
   <si>
-    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_OU") != null</t>
-  </si>
-  <si>
     <t>data("OOP_B_OUTT_OU") =="1"</t>
   </si>
   <si>
@@ -669,6 +645,30 @@
   </si>
   <si>
     <t>Antibioticos</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null|| data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_OU") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_SEL") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_OU") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_SEL") != null|| data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_OU") != null|| data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_SEL") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_OU") != null || data("OOP_BIRTH") != "1"</t>
   </si>
 </sst>
 </file>
@@ -1235,9 +1235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,7 +1347,7 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1428,19 +1428,19 @@
         <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
         <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
@@ -1454,13 +1454,13 @@
         <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -1485,7 +1485,7 @@
         <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -1527,7 +1527,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L20" s="15"/>
     </row>
@@ -1555,21 +1555,21 @@
         <v>128</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="L22" s="15"/>
     </row>
@@ -1583,18 +1583,18 @@
         <v>47</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="L23" s="15"/>
     </row>
@@ -1603,7 +1603,7 @@
         <v>88</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1639,15 +1639,15 @@
         <v>97</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L26" s="15"/>
     </row>
@@ -1722,15 +1722,15 @@
         <v>100</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -1758,13 +1758,13 @@
         <v>128</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>101</v>
@@ -1772,7 +1772,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -1786,18 +1786,18 @@
         <v>47</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -1806,7 +1806,7 @@
         <v>88</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -1842,7 +1842,7 @@
         <v>98</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>101</v>
@@ -1850,7 +1850,7 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L37" s="17"/>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L42" s="18"/>
     </row>
@@ -1961,21 +1961,21 @@
         <v>128</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="L44" s="18"/>
     </row>
@@ -1989,10 +1989,10 @@
         <v>47</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>103</v>
@@ -2000,7 +2000,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="L45" s="18"/>
     </row>
@@ -2009,7 +2009,7 @@
         <v>88</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -2045,15 +2045,15 @@
         <v>123</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L48" s="18"/>
     </row>
@@ -2154,10 +2154,10 @@
         <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F57" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -2175,13 +2175,13 @@
         <v>54</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H60" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -2199,7 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
@@ -2408,67 +2408,67 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" t="str">
         <f>"4"</f>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" t="str">
         <f>"5"</f>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" t="str">
         <f>"6"</f>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B25" t="str">
         <f>"1"</f>
@@ -2531,37 +2531,37 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B26" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B28" t="str">
         <f>"4"</f>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B29" t="str">
         <f>"5"</f>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B30" t="str">
         <f>"6"</f>
@@ -2611,67 +2611,67 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B32" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B33" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B34" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B35" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B36" t="str">
         <f>"5"</f>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B37" t="str">
         <f>"6"</f>
@@ -2706,37 +2706,37 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B39" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B40" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B41" t="str">
         <f>"3"</f>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B42" t="str">
         <f>"4"</f>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B43" t="str">
         <f>"5"</f>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B44" t="str">
         <f>"6"</f>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
         <v>128</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
         <v>128</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
         <v>128</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>118</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F146D1-548D-48E8-9CA9-E37B7784FBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA343DC2-9C80-48BD-B5AD-74C0318884A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="209">
   <si>
     <t>setting_name</t>
   </si>
@@ -344,9 +344,6 @@
     <t>OOP_B_MEDT</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnósticos: </t>
-  </si>
-  <si>
     <t>OOP_B_MEDQ</t>
   </si>
   <si>
@@ -506,27 +503,15 @@
     <t>Which materials</t>
   </si>
   <si>
-    <t>Quais materias?</t>
-  </si>
-  <si>
-    <t>Outros materiass?</t>
-  </si>
-  <si>
     <t>Other materials</t>
   </si>
   <si>
     <t>Which diagnostics</t>
   </si>
   <si>
-    <t>Quais diagnostics?</t>
-  </si>
-  <si>
     <t>Other diagnostics</t>
   </si>
   <si>
-    <t>Outros diagnostics?</t>
-  </si>
-  <si>
     <t>Medicine:</t>
   </si>
   <si>
@@ -669,6 +654,24 @@
   </si>
   <si>
     <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_OU") != null || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>Prestação de serviços (internamento)</t>
+  </si>
+  <si>
+    <t>Outros materiais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnósticos/Exames/Analises: </t>
+  </si>
+  <si>
+    <t>Quais diagnostics? (Diagnósticos/Exames/Analises)</t>
+  </si>
+  <si>
+    <t>Outros Diagnósticos/Exames/Analises?</t>
+  </si>
+  <si>
+    <t>Quais Diagnósticos/Exames/Analises?</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1189,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1236,8 +1239,8 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1341,13 +1344,13 @@
         <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1392,10 +1395,10 @@
         <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
@@ -1412,7 +1415,7 @@
         <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -1425,22 +1428,22 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
@@ -1451,16 +1454,16 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="K12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -1468,7 +1471,7 @@
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
@@ -1485,7 +1488,7 @@
         <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -1519,15 +1522,15 @@
         <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L20" s="15"/>
     </row>
@@ -1536,7 +1539,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1552,24 +1555,24 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L22" s="15"/>
     </row>
@@ -1583,18 +1586,18 @@
         <v>47</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L23" s="15"/>
     </row>
@@ -1603,7 +1606,7 @@
         <v>88</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1639,15 +1642,15 @@
         <v>97</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L26" s="15"/>
     </row>
@@ -1719,18 +1722,18 @@
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L31" s="17"/>
     </row>
@@ -1739,7 +1742,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -1755,24 +1758,24 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -1786,18 +1789,18 @@
         <v>47</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -1806,7 +1809,7 @@
         <v>88</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -1842,15 +1845,15 @@
         <v>98</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L37" s="17"/>
     </row>
@@ -1922,18 +1925,18 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" t="s">
         <v>102</v>
       </c>
-      <c r="G42" t="s">
-        <v>103</v>
-      </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L42" s="18"/>
     </row>
@@ -1942,7 +1945,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -1958,24 +1961,24 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F44" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L44" s="18"/>
     </row>
@@ -1989,18 +1992,18 @@
         <v>47</v>
       </c>
       <c r="F45" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="H45" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L45" s="18"/>
     </row>
@@ -2009,7 +2012,7 @@
         <v>88</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -2042,18 +2045,18 @@
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L48" s="18"/>
     </row>
@@ -2118,7 +2121,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -2126,38 +2129,38 @@
         <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -2175,13 +2178,13 @@
         <v>54</v>
       </c>
       <c r="F60" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G60" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -2273,242 +2276,242 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
         <v>140</v>
-      </c>
-      <c r="D18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2516,92 +2519,92 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B25" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B26" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B28" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B29" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B30" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2611,92 +2614,92 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B32" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B33" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B34" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B35" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B36" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B37" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2706,92 +2709,92 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B39" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B40" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B41" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B42" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B43" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B44" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3265,10 +3268,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3276,7 +3279,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -3309,10 +3312,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3320,7 +3323,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -3331,7 +3334,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -3353,10 +3356,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -3375,7 +3378,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -3386,7 +3389,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -3397,10 +3400,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3408,7 +3411,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -3441,10 +3444,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3452,10 +3455,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3463,7 +3466,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>54</v>
@@ -3474,7 +3477,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -3485,7 +3488,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA343DC2-9C80-48BD-B5AD-74C0318884A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C637F3-B249-4F68-975A-22D3A3822F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
   <si>
     <t>setting_name</t>
   </si>
@@ -293,9 +293,6 @@
     <t>MIF_V_OOP</t>
   </si>
   <si>
-    <t>Você pagou o parto?</t>
-  </si>
-  <si>
     <t>Quanto é que pagou pelo seguinte:</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t xml:space="preserve">data("OOP_BIRTH") == "1" </t>
   </si>
   <si>
-    <t>Prestação de serviços</t>
-  </si>
-  <si>
     <t>Materiais:</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>Quais materiais?</t>
   </si>
   <si>
-    <t>Materiais?</t>
-  </si>
-  <si>
     <t>OOP_B_DIAQ</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>select_multiple</t>
   </si>
   <si>
-    <t>Cesariana</t>
-  </si>
-  <si>
     <t>Ecografia</t>
   </si>
   <si>
@@ -470,9 +458,6 @@
     <t>Luvas</t>
   </si>
   <si>
-    <t xml:space="preserve">Catherter </t>
-  </si>
-  <si>
     <t>Materias de sutura</t>
   </si>
   <si>
@@ -515,9 +500,6 @@
     <t>Medicine:</t>
   </si>
   <si>
-    <t>Medicamentos?</t>
-  </si>
-  <si>
     <t>Medicines</t>
   </si>
   <si>
@@ -533,36 +515,15 @@
     <t>data("OOP_B_OUTQ") != null || data("OOP_BIRTH") != "1"</t>
   </si>
   <si>
-    <t>OOP_B_OUTT_SEL</t>
-  </si>
-  <si>
-    <t>OOP_B_OUTT_OU</t>
-  </si>
-  <si>
-    <t>data("OOP_B_OUTT_OU") =="1"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_OUTT") != null || data("OOP_B_OUTT_SEL") != "1"</t>
-  </si>
-  <si>
     <t>Which other expenses</t>
   </si>
   <si>
     <t>Quais outros despesas?</t>
   </si>
   <si>
-    <t>Other expenses</t>
-  </si>
-  <si>
     <t>Diagnostics</t>
   </si>
   <si>
-    <t>Analyses de urina</t>
-  </si>
-  <si>
-    <t>Other_expenses</t>
-  </si>
-  <si>
     <t>Soro</t>
   </si>
   <si>
@@ -575,18 +536,6 @@
     <t>Antibiotics</t>
   </si>
   <si>
-    <t>Bed</t>
-  </si>
-  <si>
-    <t>Cleaning</t>
-  </si>
-  <si>
-    <t>Cama</t>
-  </si>
-  <si>
-    <t>Limpeza</t>
-  </si>
-  <si>
     <t>data("OOP_B_MEDT") != null || data("OOP_B_MEDT_OU") != "1"</t>
   </si>
   <si>
@@ -599,9 +548,6 @@
     <t>OOP_B_OBS</t>
   </si>
   <si>
-    <t>Observacoes</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
@@ -614,12 +560,6 @@
     <t>All means of transport covered above</t>
   </si>
   <si>
-    <t>Todos meios de transporte incluindo em cima</t>
-  </si>
-  <si>
-    <t>Analyses de sangue</t>
-  </si>
-  <si>
     <t>Blood test</t>
   </si>
   <si>
@@ -629,9 +569,6 @@
     <t>data("OOP_BIRTH") != null</t>
   </si>
   <si>
-    <t>Antibioticos</t>
-  </si>
-  <si>
     <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null|| data("OOP_BIRTH") != "1"</t>
   </si>
   <si>
@@ -650,28 +587,97 @@
     <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_OU") != null|| data("OOP_BIRTH") != "1"</t>
   </si>
   <si>
-    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_SEL") != null || data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_OUTQ") == 0 || data("OOP_B_OUTT_OU") != null || data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
-    <t>Prestação de serviços (internamento)</t>
-  </si>
-  <si>
     <t>Outros materiais?</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnósticos/Exames/Analises: </t>
   </si>
   <si>
-    <t>Quais diagnostics? (Diagnósticos/Exames/Analises)</t>
-  </si>
-  <si>
-    <t>Outros Diagnósticos/Exames/Analises?</t>
-  </si>
-  <si>
-    <t>Quais Diagnósticos/Exames/Analises?</t>
+    <t>Prestação de serviços (pagamentos alem de materiais, diagnosticos e medicamentos)</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTT") != null || data("OOP_B_OUTQ") ==0</t>
+  </si>
+  <si>
+    <t>Nemhuma</t>
+  </si>
+  <si>
+    <t>Nemhuma destes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("OOP_B_TRAQ")!=null </t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAM")!=null ||data("OOP_B_TRAQ")==0</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAM_OU")!=null ||data("OOP_B_TRAQ")==0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caterther </t>
+  </si>
+  <si>
+    <t>Ambulância</t>
+  </si>
+  <si>
+    <t>Não foi possivel arranjar transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os meios de transporte estão incluídos acima </t>
+  </si>
+  <si>
+    <t>Cateter</t>
+  </si>
+  <si>
+    <t>Análises de sangue</t>
+  </si>
+  <si>
+    <t>Análises de urina</t>
+  </si>
+  <si>
+    <t>Oxitocina (Inj. Malgueta)</t>
+  </si>
+  <si>
+    <t>Antibióticos</t>
+  </si>
+  <si>
+    <t>Você pagou pelo parto?</t>
+  </si>
+  <si>
+    <t>Prestação de serviços (pagamentos além de materiais, diagnósticos e medicamentos)</t>
+  </si>
+  <si>
+    <t>Quanto é que pagou pelos materiais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto é que pagou pelos diagnósticos/exames/análises: </t>
+  </si>
+  <si>
+    <t>Outros diagnósticos/exames/análises?</t>
+  </si>
+  <si>
+    <t>Quais diagnósticos/exames/análises?</t>
+  </si>
+  <si>
+    <t>Quanto é que pagou pelos medicamentos?</t>
+  </si>
+  <si>
+    <t>Quanto é que pagou pelos outros despesas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; 77 se recusou-se a responder</t>
+  </si>
+  <si>
+    <t>Se parto domiciliar, indique 0 &lt;br&gt; Indique: 33 se não sabe; 77 se recusou-se a responder</t>
+  </si>
+  <si>
+    <t>Quais diagnósticos? (diagnósticos/exames/análises)</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1195,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1222,7 +1228,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1236,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,8 +1257,8 @@
     <col min="4" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" customWidth="1"/>
+    <col min="8" max="8" width="33.54296875" customWidth="1"/>
     <col min="9" max="9" width="5.90625" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" customWidth="1"/>
@@ -1341,16 +1347,16 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1364,7 +1370,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -1378,10 +1384,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
@@ -1389,16 +1395,19 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="M8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
@@ -1406,44 +1415,47 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="M9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
@@ -1454,24 +1466,24 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
@@ -1479,16 +1491,16 @@
         <v>54</v>
       </c>
       <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
         <v>91</v>
       </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -1496,22 +1508,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
@@ -1519,27 +1531,30 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1551,32 +1566,32 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
@@ -1586,27 +1601,27 @@
         <v>47</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1618,7 +1633,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1631,7 +1646,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
@@ -1639,22 +1654,22 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>56</v>
       </c>
@@ -1669,7 +1684,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>56</v>
       </c>
@@ -1684,7 +1699,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>38</v>
       </c>
@@ -1699,7 +1714,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1729,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17" t="s">
@@ -1722,27 +1737,30 @@
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -1754,32 +1772,32 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
@@ -1789,27 +1807,27 @@
         <v>47</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B35" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -1821,7 +1839,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1834,7 +1852,7 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
@@ -1842,22 +1860,22 @@
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B38" s="17" t="s">
         <v>56</v>
       </c>
@@ -1872,7 +1890,7 @@
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B39" s="17" t="s">
         <v>56</v>
       </c>
@@ -1887,7 +1905,7 @@
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B40" s="17" t="s">
         <v>38</v>
       </c>
@@ -1902,7 +1920,7 @@
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B41" s="17" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1935,7 @@
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
@@ -1925,27 +1943,30 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -1957,63 +1978,49 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>171</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E44" s="18"/>
       <c r="F44" s="18" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L44" s="18"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="18"/>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>102</v>
-      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="18" t="s">
-        <v>202</v>
-      </c>
+      <c r="K45" s="18"/>
       <c r="L45" s="18"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>164</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -2024,171 +2031,108 @@
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>206</v>
+      </c>
+      <c r="K50" t="s">
+        <v>186</v>
+      </c>
+      <c r="M50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" t="s">
+        <v>168</v>
+      </c>
+      <c r="K53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" s="18" t="s">
+      <c r="F56" t="s">
         <v>166</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="G56" t="s">
         <v>167</v>
       </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B51" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="16"/>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D57" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" t="s">
-        <v>187</v>
-      </c>
-      <c r="F57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" t="s">
-        <v>183</v>
-      </c>
-      <c r="G60" t="s">
-        <v>185</v>
-      </c>
-      <c r="H60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
+      <c r="H56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2200,11 +2144,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2276,531 +2220,459 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" t="str">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" t="str">
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" t="str">
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" t="str">
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" t="str">
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" t="str">
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="str">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" t="str">
+      <c r="C33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" t="str">
+      <c r="C34" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" t="str">
+      <c r="C35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" t="str">
+      <c r="C36" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" t="str">
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
@@ -2813,19 +2685,20 @@
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
@@ -2833,7 +2706,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
@@ -2841,10 +2714,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
@@ -2867,6 +2740,7 @@
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
@@ -2879,7 +2753,6 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="5"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
@@ -2887,16 +2760,17 @@
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
@@ -2906,20 +2780,20 @@
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C76" s="7"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="5"/>
-      <c r="C78" s="7"/>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C77" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
@@ -2932,17 +2806,17 @@
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83" s="5"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="5"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C85" s="7"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B88" s="5"/>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C86" s="7"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
@@ -2991,6 +2865,9 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3196,8 +3073,8 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3224,7 +3101,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -3235,7 +3112,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -3246,7 +3123,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -3257,7 +3134,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3268,10 +3145,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3279,7 +3156,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -3290,7 +3167,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -3301,7 +3178,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -3312,10 +3189,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3323,7 +3200,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -3334,7 +3211,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -3345,7 +3222,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -3356,10 +3233,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3367,7 +3244,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -3378,7 +3255,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -3389,7 +3266,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -3398,31 +3275,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -3433,7 +3288,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -3444,10 +3299,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3455,10 +3310,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3466,7 +3321,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>54</v>
@@ -3477,7 +3332,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -3488,7 +3343,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C637F3-B249-4F68-975A-22D3A3822F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A601D0-C1A9-4A9C-A7EF-C0192FC301BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
   <si>
     <t>setting_name</t>
   </si>
@@ -392,9 +392,6 @@
     <t>select_one_with_other</t>
   </si>
   <si>
-    <t>Nao foi possive arranjar transporter</t>
-  </si>
-  <si>
     <t>Nao sabe</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>Ambulância</t>
   </si>
   <si>
-    <t>Não foi possivel arranjar transporte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Todos os meios de transporte estão incluídos acima </t>
   </si>
   <si>
@@ -641,9 +635,6 @@
     <t>Antibióticos</t>
   </si>
   <si>
-    <t>Você pagou pelo parto?</t>
-  </si>
-  <si>
     <t>Prestação de serviços (pagamentos além de materiais, diagnósticos e medicamentos)</t>
   </si>
   <si>
@@ -678,6 +669,12 @@
   </si>
   <si>
     <t>Quais diagnósticos? (diagnósticos/exames/análises)</t>
+  </si>
+  <si>
+    <t>Você pagou pelo parto? (Prestacao de servico, materiais, diagnosticos, medicamentos)</t>
+  </si>
+  <si>
+    <t>Carro de Transporte</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1244,9 +1241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,10 +1350,10 @@
         <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1398,16 +1395,16 @@
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
@@ -1421,13 +1418,13 @@
         <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -1440,22 +1437,22 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
         <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
@@ -1466,16 +1463,16 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -1483,7 +1480,7 @@
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
@@ -1500,7 +1497,7 @@
         <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -1534,19 +1531,19 @@
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
@@ -1570,24 +1567,24 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L22" s="15"/>
     </row>
@@ -1601,18 +1598,18 @@
         <v>47</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L23" s="15"/>
     </row>
@@ -1621,7 +1618,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1657,15 +1654,15 @@
         <v>94</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L26" s="15"/>
     </row>
@@ -1740,19 +1737,19 @@
         <v>96</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
@@ -1776,16 +1773,16 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>97</v>
@@ -1793,7 +1790,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L33" s="17"/>
     </row>
@@ -1807,18 +1804,18 @@
         <v>47</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -1827,7 +1824,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -1863,7 +1860,7 @@
         <v>95</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>97</v>
@@ -1871,7 +1868,7 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L37" s="17"/>
     </row>
@@ -1949,16 +1946,16 @@
         <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L42" s="18"/>
       <c r="M42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -1986,18 +1983,18 @@
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L44" s="18"/>
     </row>
@@ -2047,10 +2044,10 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -2064,18 +2061,18 @@
         <v>100</v>
       </c>
       <c r="H50" t="s">
+        <v>203</v>
+      </c>
+      <c r="K50" t="s">
+        <v>185</v>
+      </c>
+      <c r="M50" t="s">
         <v>206</v>
-      </c>
-      <c r="K50" t="s">
-        <v>186</v>
-      </c>
-      <c r="M50" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
         <v>102</v>
@@ -2090,7 +2087,7 @@
         <v>101</v>
       </c>
       <c r="K52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
@@ -2098,13 +2095,13 @@
         <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.35">
@@ -2122,13 +2119,13 @@
         <v>54</v>
       </c>
       <c r="F56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" t="s">
         <v>166</v>
       </c>
-      <c r="G56" t="s">
-        <v>167</v>
-      </c>
       <c r="H56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.35">
@@ -2144,11 +2141,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2227,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2260,7 +2257,7 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2305,7 +2302,7 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2313,14 +2310,14 @@
         <v>102</v>
       </c>
       <c r="B12" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"33"</f>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2328,14 +2325,14 @@
         <v>102</v>
       </c>
       <c r="B13" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"66"</f>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -2343,326 +2340,315 @@
         <v>102</v>
       </c>
       <c r="B14" t="str">
-        <f>"66"</f>
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" t="s">
         <v>184</v>
       </c>
-      <c r="D15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="str">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" t="s">
-        <v>192</v>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="str">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="str">
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" t="str">
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" t="str">
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C32" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B27" t="str">
+      <c r="D32" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="str">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" t="str">
+      <c r="C34" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="C35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" t="str">
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>126</v>
-      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
@@ -2670,9 +2656,10 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
@@ -2685,20 +2672,19 @@
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
@@ -2706,7 +2692,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
@@ -2714,10 +2700,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
@@ -2740,7 +2726,6 @@
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="5"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
@@ -2753,6 +2738,7 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
@@ -2760,17 +2746,16 @@
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B68" s="5"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
@@ -2780,20 +2765,20 @@
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="5"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C77" s="7"/>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="5"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
@@ -2806,17 +2791,17 @@
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="5"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B84" s="5"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C86" s="7"/>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
@@ -2865,9 +2850,6 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3145,10 +3127,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3156,7 +3138,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -3189,10 +3171,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3200,7 +3182,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -3233,10 +3215,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3244,7 +3226,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -3266,7 +3248,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -3277,7 +3259,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -3302,7 +3284,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3310,7 +3292,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>114</v>
@@ -3321,7 +3303,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>54</v>
@@ -3332,7 +3314,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -3343,7 +3325,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A601D0-C1A9-4A9C-A7EF-C0192FC301BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E147E51-4DF0-40D7-942A-460FB0B21F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="220">
   <si>
     <t>setting_name</t>
   </si>
@@ -593,24 +593,12 @@
     <t>Prestação de serviços (pagamentos alem de materiais, diagnosticos e medicamentos)</t>
   </si>
   <si>
-    <t>data("OOP_B_OUTT") != null || data("OOP_B_OUTQ") ==0</t>
-  </si>
-  <si>
     <t>Nemhuma</t>
   </si>
   <si>
     <t>Nemhuma destes</t>
   </si>
   <si>
-    <t xml:space="preserve">data("OOP_B_TRAQ")!=null </t>
-  </si>
-  <si>
-    <t>data("OOP_B_TRAM")!=null ||data("OOP_B_TRAQ")==0</t>
-  </si>
-  <si>
-    <t>data("OOP_B_TRAM_OU")!=null ||data("OOP_B_TRAQ")==0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Caterther </t>
   </si>
   <si>
@@ -656,9 +644,6 @@
     <t>Quanto é que pagou pelos outros despesas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
-  </si>
-  <si>
     <t>Observações</t>
   </si>
   <si>
@@ -675,6 +660,51 @@
   </si>
   <si>
     <t>Carro de Transporte</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTT") != null || data("OOP_B_OUTQ") ==0 || data("OOP_BIRTH") != "1"</t>
+  </si>
+  <si>
+    <t>Partos domiciliar: Incluindo multas</t>
+  </si>
+  <si>
+    <t>Incluindo multas se for parto domicilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se for multado naaltura de vacinacao evite conta duplo </t>
+  </si>
+  <si>
+    <t>OOP_B_TRAQ_COMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voce: Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompanhantes: Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
+  </si>
+  <si>
+    <t>Did (at least part of the birth) take place in a health facility?</t>
+  </si>
+  <si>
+    <t>Foi (pelo menos parte de) o parto numa estabelecimento de saude?</t>
+  </si>
+  <si>
+    <t>OOP_FACILITY</t>
+  </si>
+  <si>
+    <t>data("OOP_FACILITY") != null</t>
+  </si>
+  <si>
+    <t>data("OOP_FACILITY")!="2"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAQ")!=null ||data("OOP_FACILITY")!="2"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAM")!=null ||data("OOP_B_TRAQ")==0 || data("OOP_FACILITY")!="2"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAM_OU")!=null ||data("OOP_B_TRAQ")==0 || data("OOP_FACILITY")!="2"</t>
   </si>
 </sst>
 </file>
@@ -1239,11 +1269,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1350,61 +1380,64 @@
         <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K3" t="s">
         <v>172</v>
       </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
@@ -1412,97 +1445,112 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
         <v>88</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="H9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" t="s">
         <v>129</v>
       </c>
-      <c r="M9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="M10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>146</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>179</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>89</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
@@ -1512,127 +1560,119 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" t="s">
         <v>93</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>180</v>
       </c>
-      <c r="H20" t="s">
-        <v>198</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="15"/>
-      <c r="M20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="H21" t="s">
+        <v>194</v>
+      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="K21" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="L21" s="15"/>
+      <c r="M21" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>207</v>
-      </c>
+      <c r="B22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="15" t="s">
-        <v>175</v>
-      </c>
+      <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1646,39 +1686,37 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="K27" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="L27" s="15"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
@@ -1698,7 +1736,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1713,7 +1751,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1727,118 +1765,120 @@
       <c r="L30" s="15"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G32" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>197</v>
+      </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>97</v>
-      </c>
+      <c r="M32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="K35" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B36" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
@@ -1849,45 +1889,43 @@
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="D37" s="17"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>97</v>
-      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="17" t="s">
-        <v>162</v>
-      </c>
+      <c r="K37" s="17"/>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="17" t="s">
-        <v>56</v>
-      </c>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="K38" s="17" t="s">
+        <v>162</v>
+      </c>
       <c r="L38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" s="17" t="s">
         <v>56</v>
       </c>
@@ -1902,9 +1940,9 @@
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" s="17" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1917,9 +1955,9 @@
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -1932,205 +1970,271 @@
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>99</v>
       </c>
-      <c r="H42" t="s">
-        <v>202</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="L42" s="18"/>
-      <c r="M42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B43" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="H43" t="s">
+        <v>198</v>
+      </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
+      <c r="K43" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="M43" t="s">
+        <v>200</v>
+      </c>
+      <c r="O43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="18" t="s">
-        <v>182</v>
-      </c>
+      <c r="K44" s="18"/>
       <c r="L44" s="18"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B45" s="18" t="s">
-        <v>56</v>
-      </c>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B45" s="18"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="H45" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B46" s="18" t="s">
-        <v>38</v>
-      </c>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B46" s="18"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="F46" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
+      <c r="K46" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="L46" s="18"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" t="s">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="16"/>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="16"/>
+      <c r="B50" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D49" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
         <v>35</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G52" t="s">
         <v>121</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H52" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D50" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
         <v>45</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>112</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G53" t="s">
         <v>100</v>
       </c>
-      <c r="H50" t="s">
-        <v>203</v>
-      </c>
-      <c r="K50" t="s">
-        <v>185</v>
-      </c>
-      <c r="M50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D52" t="s">
+      <c r="H53" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" t="s">
+        <v>217</v>
+      </c>
+      <c r="M53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
         <v>123</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E55" t="s">
         <v>102</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F55" t="s">
         <v>113</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G55" t="s">
         <v>101</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H55" t="s">
         <v>101</v>
       </c>
-      <c r="K52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D53" t="s">
+      <c r="K55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
         <v>114</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E56" t="s">
         <v>168</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F56" t="s">
         <v>167</v>
       </c>
-      <c r="K53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
+      <c r="K56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
         <v>54</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F60" t="s">
         <v>165</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G60" t="s">
         <v>166</v>
       </c>
-      <c r="H56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
+      <c r="H60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2143,9 +2247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,7 +2361,7 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2302,7 +2406,7 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2344,10 +2448,10 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2362,7 +2466,7 @@
         <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2389,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2485,7 +2589,7 @@
         <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2500,7 +2604,7 @@
         <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2580,7 +2684,7 @@
         <v>159</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2610,7 +2714,7 @@
         <v>161</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -3054,9 +3158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3257,6 +3361,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>165</v>
@@ -3265,6 +3380,17 @@
         <v>54</v>
       </c>
       <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E147E51-4DF0-40D7-942A-460FB0B21F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1933490E-B281-4857-B421-0D3411B64DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="221">
   <si>
     <t>setting_name</t>
   </si>
@@ -656,9 +656,6 @@
     <t>Quais diagnósticos? (diagnósticos/exames/análises)</t>
   </si>
   <si>
-    <t>Você pagou pelo parto? (Prestacao de servico, materiais, diagnosticos, medicamentos)</t>
-  </si>
-  <si>
     <t>Carro de Transporte</t>
   </si>
   <si>
@@ -686,9 +683,6 @@
     <t>Did (at least part of the birth) take place in a health facility?</t>
   </si>
   <si>
-    <t>Foi (pelo menos parte de) o parto numa estabelecimento de saude?</t>
-  </si>
-  <si>
     <t>OOP_FACILITY</t>
   </si>
   <si>
@@ -705,6 +699,15 @@
   </si>
   <si>
     <t>data("OOP_B_TRAM_OU")!=null ||data("OOP_B_TRAQ")==0 || data("OOP_FACILITY")!="2"</t>
+  </si>
+  <si>
+    <t>O parto foi num estabelecimento de saude? (pelo menos um parte)</t>
+  </si>
+  <si>
+    <t>Você pagou pelo parto? &lt;br&gt; (Prestacao de servico, materiais, diagnosticos, medicamentos)</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAM_COMP")!=null ||data("OOP_B_TRAQ")==0 || data("OOP_FACILITY")!="2"</t>
   </si>
 </sst>
 </file>
@@ -1271,9 +1274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1380,13 +1383,13 @@
         <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K3" t="s">
         <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1397,16 +1400,16 @@
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" t="s">
         <v>213</v>
-      </c>
-      <c r="K4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -2011,7 +2014,7 @@
         <v>200</v>
       </c>
       <c r="O43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
@@ -2041,7 +2044,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -2067,7 +2070,7 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L46" s="18"/>
     </row>
@@ -2113,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2143,10 +2146,10 @@
         <v>100</v>
       </c>
       <c r="H53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M53" t="s">
         <v>201</v>
@@ -2169,7 +2172,7 @@
         <v>101</v>
       </c>
       <c r="K55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -2183,7 +2186,7 @@
         <v>167</v>
       </c>
       <c r="K56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -2191,16 +2194,16 @@
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G57" t="s">
         <v>100</v>
       </c>
       <c r="H57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K57" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -2361,7 +2364,7 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -3158,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -3363,7 +3366,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1933490E-B281-4857-B421-0D3411B64DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F2C4E1-827B-4238-A41A-E62AC609A547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
   <si>
     <t>setting_name</t>
   </si>
@@ -317,9 +317,6 @@
     <t>OOP_B_MATT</t>
   </si>
   <si>
-    <t>data("OOP_B_MATQ") &gt;0</t>
-  </si>
-  <si>
     <t>Which Materials</t>
   </si>
   <si>
@@ -374,15 +371,6 @@
     <t>Did you pay for the birth?</t>
   </si>
   <si>
-    <t>data("OOP_B_DIAQ") &gt;0</t>
-  </si>
-  <si>
-    <t>data("OOP_B_MEDQ") &gt;0</t>
-  </si>
-  <si>
-    <t>data("OOP_B_OUTQ") &gt;0</t>
-  </si>
-  <si>
     <t>OOP_B_TRAQ</t>
   </si>
   <si>
@@ -422,9 +410,6 @@
     <t>Ecografia</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>data("OOP_B_SERQ") != null || data("OOP_BIRTH") != "1"</t>
   </si>
   <si>
@@ -566,24 +551,6 @@
     <t>data("OOP_BIRTH") != null</t>
   </si>
   <si>
-    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null|| data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_OU") != null || data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_SEL") != null || data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_OU") != null || data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_SEL") != null|| data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_OU") != null|| data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
     <t>Outros materiais?</t>
   </si>
   <si>
@@ -608,9 +575,6 @@
     <t xml:space="preserve">Todos os meios de transporte estão incluídos acima </t>
   </si>
   <si>
-    <t>Cateter</t>
-  </si>
-  <si>
     <t>Análises de sangue</t>
   </si>
   <si>
@@ -647,30 +611,18 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>Indique: 33 se não sabe; 77 se recusou-se a responder</t>
-  </si>
-  <si>
-    <t>Se parto domiciliar, indique 0 &lt;br&gt; Indique: 33 se não sabe; 77 se recusou-se a responder</t>
-  </si>
-  <si>
     <t>Quais diagnósticos? (diagnósticos/exames/análises)</t>
   </si>
   <si>
     <t>Carro de Transporte</t>
   </si>
   <si>
-    <t>data("OOP_B_OUTT") != null || data("OOP_B_OUTQ") ==0 || data("OOP_BIRTH") != "1"</t>
-  </si>
-  <si>
     <t>Partos domiciliar: Incluindo multas</t>
   </si>
   <si>
     <t>Incluindo multas se for parto domicilar</t>
   </si>
   <si>
-    <t xml:space="preserve">Se for multado naaltura de vacinacao evite conta duplo </t>
-  </si>
-  <si>
     <t>OOP_B_TRAQ_COMP</t>
   </si>
   <si>
@@ -692,22 +644,94 @@
     <t>data("OOP_FACILITY")!="2"</t>
   </si>
   <si>
-    <t>data("OOP_B_TRAQ")!=null ||data("OOP_FACILITY")!="2"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_TRAM")!=null ||data("OOP_B_TRAQ")==0 || data("OOP_FACILITY")!="2"</t>
-  </si>
-  <si>
-    <t>data("OOP_B_TRAM_OU")!=null ||data("OOP_B_TRAQ")==0 || data("OOP_FACILITY")!="2"</t>
-  </si>
-  <si>
     <t>O parto foi num estabelecimento de saude? (pelo menos um parte)</t>
   </si>
   <si>
     <t>Você pagou pelo parto? &lt;br&gt; (Prestacao de servico, materiais, diagnosticos, medicamentos)</t>
   </si>
   <si>
-    <t>data("OOP_B_TRAM_COMP")!=null ||data("OOP_B_TRAQ")==0 || data("OOP_FACILITY")!="2"</t>
+    <t>Cateter (urina)</t>
+  </si>
+  <si>
+    <t>IV drip materials</t>
+  </si>
+  <si>
+    <t>Cateter (para soro/sangue)</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>Nenhuma destes</t>
+  </si>
+  <si>
+    <t>Ferro</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>Feces test</t>
+  </si>
+  <si>
+    <t>Análises de fezes</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAQ")!=null ||data("OOP_FACILITY")=="2"</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
+  </si>
+  <si>
+    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se for multado na altura de vacinacao evite conta duplo </t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAM")!=null ||data("OOP_FACILITY")=="2"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAM_OU")!=null  || data("OOP_FACILITY")=="2"</t>
+  </si>
+  <si>
+    <t>Removeddata("OOP_B_TRAM_COMP")!=null || data("OOP_FACILITY")=="2"</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_SEL") != null|| data("OOP_BIRTH") != "1" || data("OOP_B_MEDQ") == 88 || data("OOP_B_MEDQ") == 77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") == 0 || data("OOP_B_MEDT_OU") != null|| data("OOP_BIRTH") != "1" || data("OOP_B_MEDQ") == 88 || data("OOP_B_MEDQ") == 77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTT") != null || data("OOP_B_OUTQ") ==0 || data("OOP_BIRTH") != "1" || data("OOP_B_OUTQ") ==88  || data("OOP_B_OUTQ") ==77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") &gt;0 &amp;&amp; data("OOP_B_MATQ") !=88 &amp;&amp; data("OOP_B_MATQ") !=77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_SEL") != null || data("OOP_BIRTH") != "1" || data("OOP_B_DIAQ")==77 || data("OOP_B_DIAQ")==88</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") == 0 || data("OOP_B_DIAT_OU") != null || data("OOP_BIRTH") != "1" || data("OOP_B_DIAQ")==77 || data("OOP_B_DIAQ")==88</t>
+  </si>
+  <si>
+    <t>data("OOP_B_DIAQ") &gt;0 &amp;&amp; data("OOP_B_DIAQ") !=88 &amp;&amp; data("OOP_B_DIAQ") !=77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MEDQ") &gt;0 &amp;&amp; data("OOP_B_MEDQ") !=88  &amp;&amp; data("OOP_B_MEDQ") !=77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_OUTQ") &gt;0 &amp;&amp; data("OOP_B_OUTQ") !=88 &amp;&amp; data("OOP_B_OUTQ") !=77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_OU") != null || data("OOP_BIRTH") != "1" ||data("OOP_B_MATQ") ==88 || data("OOP_B_MATQ") ==77</t>
+  </si>
+  <si>
+    <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null || data("OOP_BIRTH") != "1" ||data("OOP_B_MATQ") == 88 || data("OOP_B_MATQ") ==77</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1272,11 +1296,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="F1" zoomScale="66" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1380,16 +1404,16 @@
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1400,16 +1424,16 @@
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -1451,16 +1475,16 @@
         <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M9" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -1474,13 +1498,13 @@
         <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -1488,27 +1512,27 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -1519,16 +1543,16 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
@@ -1536,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -1547,13 +1571,13 @@
         <v>89</v>
       </c>
       <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
         <v>91</v>
       </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
@@ -1584,22 +1608,22 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
@@ -1607,7 +1631,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1623,24 +1647,24 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="L23" s="15"/>
     </row>
@@ -1654,18 +1678,18 @@
         <v>47</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -1674,7 +1698,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1707,18 +1731,18 @@
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L27" s="15"/>
     </row>
@@ -1790,22 +1814,22 @@
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
@@ -1813,7 +1837,7 @@
         <v>86</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -1829,24 +1853,24 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -1860,18 +1884,18 @@
         <v>47</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="L35" s="17"/>
     </row>
@@ -1880,7 +1904,7 @@
         <v>86</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -1913,18 +1937,18 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L38" s="17"/>
     </row>
@@ -1996,25 +2020,25 @@
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" t="s">
         <v>98</v>
       </c>
-      <c r="G43" t="s">
-        <v>99</v>
-      </c>
       <c r="H43" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L43" s="18"/>
       <c r="M43" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O43" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
@@ -2022,7 +2046,7 @@
         <v>86</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2038,40 +2062,40 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="H45" s="18" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="K45" s="18" t="s">
+        <v>220</v>
+      </c>
       <c r="L45" s="18"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E46" s="18"/>
-      <c r="F46" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
       <c r="H46" s="18" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="18" t="s">
-        <v>204</v>
-      </c>
+      <c r="K46" s="18"/>
       <c r="L46" s="18"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
@@ -2104,138 +2128,138 @@
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="16"/>
       <c r="B50" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H53" t="s">
+        <v>193</v>
+      </c>
+      <c r="K53" t="s">
+        <v>211</v>
+      </c>
+      <c r="M53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" t="s">
         <v>100</v>
       </c>
-      <c r="H53" t="s">
-        <v>209</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="K55" t="s">
         <v>215</v>
       </c>
-      <c r="M53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" t="s">
-        <v>101</v>
-      </c>
-      <c r="H55" t="s">
-        <v>101</v>
-      </c>
-      <c r="K55" t="s">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" t="s">
+        <v>162</v>
+      </c>
+      <c r="K56" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" t="s">
-        <v>167</v>
-      </c>
-      <c r="K56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K57" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="U57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>54</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>56</v>
       </c>
@@ -2248,11 +2272,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2324,104 +2348,104 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -2429,349 +2453,364 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B18" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B19" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B20" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B21" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
+      <c r="C36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B37" t="str">
-        <f>"6"</f>
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
@@ -2779,34 +2818,37 @@
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
-      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
-      <c r="C53" s="7"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
@@ -2814,7 +2856,6 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
-      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
@@ -2833,9 +2874,11 @@
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
@@ -2845,50 +2888,50 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="5"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B67" s="5"/>
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
       <c r="C76" s="7"/>
     </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C77" s="7"/>
+    </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="5"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C79" s="7"/>
-    </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
@@ -2898,20 +2941,20 @@
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B83" s="5"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="5"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B89" s="5"/>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C87" s="7"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
@@ -2957,6 +3000,12 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3234,10 +3283,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3245,7 +3294,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -3256,7 +3305,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -3267,7 +3316,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -3278,10 +3327,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3289,7 +3338,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -3300,7 +3349,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -3311,7 +3360,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -3322,10 +3371,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3333,7 +3382,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -3344,7 +3393,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -3355,7 +3404,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -3366,7 +3415,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3377,7 +3426,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -3388,7 +3437,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3399,7 +3448,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -3410,10 +3459,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3421,10 +3470,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3432,7 +3481,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>54</v>
@@ -3443,7 +3492,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -3454,7 +3503,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F2C4E1-827B-4238-A41A-E62AC609A547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945009C-5C0A-4FFE-9675-4D74A64C3F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="238">
   <si>
     <t>setting_name</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Antibióticos</t>
   </si>
   <si>
-    <t>Prestação de serviços (pagamentos além de materiais, diagnósticos e medicamentos)</t>
-  </si>
-  <si>
     <t>Quanto é que pagou pelos materiais?</t>
   </si>
   <si>
@@ -617,9 +614,6 @@
     <t>Carro de Transporte</t>
   </si>
   <si>
-    <t>Partos domiciliar: Incluindo multas</t>
-  </si>
-  <si>
     <t>Incluindo multas se for parto domicilar</t>
   </si>
   <si>
@@ -683,12 +677,6 @@
     <t>data("OOP_B_TRAQ")!=null ||data("OOP_FACILITY")=="2"</t>
   </si>
   <si>
-    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
-  </si>
-  <si>
-    <t>Indique: 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se for multado na altura de vacinacao evite conta duplo </t>
   </si>
   <si>
@@ -732,6 +720,45 @@
   </si>
   <si>
     <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null || data("OOP_BIRTH") != "1" ||data("OOP_B_MATQ") == 88 || data("OOP_B_MATQ") ==77</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado materiais</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi feito diagnosticos/exames/analises</t>
+  </si>
+  <si>
+    <t>TDR</t>
+  </si>
+  <si>
+    <t>TDR (paludismo)</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi receitada medicamentos</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
+  </si>
+  <si>
+    <t>data("OOP_B_TRAQ_COMP")!=null ||data("OOP_FACILITY")=="2"</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi acompanhada</t>
+  </si>
+  <si>
+    <t>Private car</t>
+  </si>
+  <si>
+    <t>Carro Particular</t>
+  </si>
+  <si>
+    <t>Partos domiciliares: Incluindo multas</t>
+  </si>
+  <si>
+    <t>Prestação de serviços &lt;br&gt; (pagamentos além de materiais, diagnósticos e medicamentos)</t>
   </si>
 </sst>
 </file>
@@ -1298,9 +1325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="121" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,13 +1434,13 @@
         <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
         <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1424,16 +1451,16 @@
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" t="s">
         <v>195</v>
-      </c>
-      <c r="H4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -1478,13 +1505,13 @@
         <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="K9" t="s">
         <v>121</v>
       </c>
       <c r="M9" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -1498,13 +1525,13 @@
         <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K10" t="s">
         <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -1512,7 +1539,7 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
@@ -1532,7 +1559,7 @@
         <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -1552,7 +1579,7 @@
         <v>168</v>
       </c>
       <c r="K13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
@@ -1614,7 +1641,7 @@
         <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -1623,7 +1650,7 @@
       </c>
       <c r="L21" s="15"/>
       <c r="M21" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
@@ -1631,7 +1658,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1659,12 +1686,12 @@
         <v>142</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L23" s="15"/>
     </row>
@@ -1684,12 +1711,12 @@
         <v>143</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -1737,7 +1764,7 @@
         <v>142</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -1820,7 +1847,7 @@
         <v>144</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -1829,7 +1856,7 @@
       </c>
       <c r="L32" s="17"/>
       <c r="M32" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
@@ -1837,7 +1864,7 @@
         <v>86</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -1870,7 +1897,7 @@
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -1895,7 +1922,7 @@
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L35" s="17"/>
     </row>
@@ -2026,7 +2053,7 @@
         <v>98</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -2035,10 +2062,10 @@
       </c>
       <c r="L43" s="18"/>
       <c r="M43" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
@@ -2046,7 +2073,7 @@
         <v>86</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2077,7 +2104,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L45" s="18"/>
     </row>
@@ -2091,7 +2118,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -2140,7 +2167,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
@@ -2170,13 +2197,13 @@
         <v>99</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M53" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
@@ -2196,7 +2223,7 @@
         <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
@@ -2210,7 +2237,7 @@
         <v>162</v>
       </c>
       <c r="K56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
@@ -2218,16 +2245,22 @@
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G57" t="s">
         <v>99</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="K57" t="s">
+        <v>231</v>
+      </c>
+      <c r="M57" t="s">
+        <v>233</v>
       </c>
       <c r="U57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
@@ -2237,31 +2270,31 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
         <v>54</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>160</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>161</v>
       </c>
-      <c r="H60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>38</v>
+      <c r="H61" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2272,11 +2305,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2388,7 +2421,7 @@
         <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2441,14 +2474,14 @@
         <v>101</v>
       </c>
       <c r="B12" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2456,14 +2489,14 @@
         <v>101</v>
       </c>
       <c r="B13" t="str">
-        <f>"66"</f>
-        <v>66</v>
+        <f>"33"</f>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -2471,44 +2504,44 @@
         <v>101</v>
       </c>
       <c r="B14" t="str">
+        <f>"66"</f>
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>171</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>164</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2516,14 +2549,14 @@
         <v>128</v>
       </c>
       <c r="B19" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2531,14 +2564,14 @@
         <v>128</v>
       </c>
       <c r="B20" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2546,14 +2579,14 @@
         <v>128</v>
       </c>
       <c r="B21" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2561,14 +2594,14 @@
         <v>128</v>
       </c>
       <c r="B22" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2576,47 +2609,47 @@
         <v>128</v>
       </c>
       <c r="B23" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>152</v>
       </c>
       <c r="B27" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2624,14 +2657,14 @@
         <v>152</v>
       </c>
       <c r="B28" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2639,14 +2672,14 @@
         <v>152</v>
       </c>
       <c r="B29" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2654,14 +2687,14 @@
         <v>152</v>
       </c>
       <c r="B30" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2669,64 +2702,64 @@
         <v>152</v>
       </c>
       <c r="B31" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>153</v>
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>145</v>
       </c>
       <c r="B35" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2734,14 +2767,14 @@
         <v>145</v>
       </c>
       <c r="B36" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2749,14 +2782,14 @@
         <v>145</v>
       </c>
       <c r="B37" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2764,14 +2797,14 @@
         <v>145</v>
       </c>
       <c r="B38" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" t="s">
-        <v>208</v>
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2779,14 +2812,14 @@
         <v>145</v>
       </c>
       <c r="B39" t="str">
-        <f>"33"</f>
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2794,33 +2827,53 @@
         <v>145</v>
       </c>
       <c r="B40" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>171</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
@@ -2828,34 +2881,37 @@
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="5"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
-      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
@@ -2863,7 +2919,6 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
@@ -2882,9 +2937,11 @@
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="5"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
@@ -2894,50 +2951,50 @@
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B68" s="5"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="5"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="5"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B76" s="5"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
       <c r="C78" s="7"/>
     </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C79" s="7"/>
+    </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B80" s="5"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C81" s="7"/>
-    </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="5"/>
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
@@ -2947,20 +3004,20 @@
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B85" s="5"/>
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="5"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B91" s="5"/>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C89" s="7"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
@@ -3006,6 +3063,12 @@
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3415,7 +3478,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3437,7 +3500,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945009C-5C0A-4FFE-9675-4D74A64C3F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30C685E-82CF-48DE-8E5B-C49AD323544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="242">
   <si>
     <t>setting_name</t>
   </si>
@@ -759,6 +759,18 @@
   </si>
   <si>
     <t>Prestação de serviços &lt;br&gt; (pagamentos além de materiais, diagnósticos e medicamentos)</t>
+  </si>
+  <si>
+    <t>Lamina</t>
+  </si>
+  <si>
+    <t>Tread</t>
+  </si>
+  <si>
+    <t>Linha</t>
+  </si>
+  <si>
+    <t>Razor blade</t>
   </si>
 </sst>
 </file>
@@ -1325,9 +1337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="121" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2305,11 +2317,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="A12:D12"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2609,14 +2621,14 @@
         <v>128</v>
       </c>
       <c r="B23" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"8"</f>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2624,62 +2636,62 @@
         <v>128</v>
       </c>
       <c r="B24" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>202</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" t="s">
-        <v>176</v>
-      </c>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>152</v>
       </c>
       <c r="B29" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2687,14 +2699,14 @@
         <v>152</v>
       </c>
       <c r="B30" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2702,14 +2714,14 @@
         <v>152</v>
       </c>
       <c r="B31" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2717,14 +2729,14 @@
         <v>152</v>
       </c>
       <c r="B32" t="str">
-        <f>"33"</f>
-        <v>33</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2732,64 +2744,64 @@
         <v>152</v>
       </c>
       <c r="B33" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>202</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>178</v>
-      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>145</v>
       </c>
       <c r="B37" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2797,14 +2809,14 @@
         <v>145</v>
       </c>
       <c r="B38" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2812,14 +2824,14 @@
         <v>145</v>
       </c>
       <c r="B39" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2827,14 +2839,14 @@
         <v>145</v>
       </c>
       <c r="B40" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" t="s">
-        <v>206</v>
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2842,14 +2854,14 @@
         <v>145</v>
       </c>
       <c r="B41" t="str">
-        <f>"33"</f>
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2857,33 +2869,53 @@
         <v>145</v>
       </c>
       <c r="B42" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"33"</f>
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>171</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
@@ -2891,34 +2923,37 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="5"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
-      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
@@ -2926,7 +2961,6 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
-      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
@@ -2945,9 +2979,11 @@
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
@@ -2957,50 +2993,50 @@
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="5"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="5"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="5"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
       <c r="C80" s="7"/>
     </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C81" s="7"/>
+    </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B82" s="5"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C83" s="7"/>
-    </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="5"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
@@ -3010,20 +3046,20 @@
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B87" s="5"/>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89" s="5"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B93" s="5"/>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C91" s="7"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
@@ -3069,6 +3105,12 @@
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30C685E-82CF-48DE-8E5B-C49AD323544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EF58EB-3D57-4A99-85CE-245312277B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="265">
   <si>
     <t>setting_name</t>
   </si>
@@ -302,9 +302,6 @@
     <t xml:space="preserve">data("OOP_BIRTH") == "1" </t>
   </si>
   <si>
-    <t>Materiais:</t>
-  </si>
-  <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>OOP_B_MATT</t>
   </si>
   <si>
-    <t>Which Materials</t>
-  </si>
-  <si>
     <t>Quais materiais?</t>
   </si>
   <si>
@@ -341,12 +335,6 @@
     <t>OOP_B_OUTQ</t>
   </si>
   <si>
-    <t>Outros despesas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quanto pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
-  </si>
-  <si>
     <t>Meio de transporte</t>
   </si>
   <si>
@@ -359,18 +347,9 @@
     <t>Taxi</t>
   </si>
   <si>
-    <t>Carro</t>
-  </si>
-  <si>
     <t>Motocarro</t>
   </si>
   <si>
-    <t>Ambulancia</t>
-  </si>
-  <si>
-    <t>Did you pay for the birth?</t>
-  </si>
-  <si>
     <t>OOP_B_TRAQ</t>
   </si>
   <si>
@@ -380,9 +359,6 @@
     <t>select_one_with_other</t>
   </si>
   <si>
-    <t>Nao sabe</t>
-  </si>
-  <si>
     <t xml:space="preserve">A pé  </t>
   </si>
   <si>
@@ -440,9 +416,6 @@
     <t>Luvas</t>
   </si>
   <si>
-    <t>Materias de sutura</t>
-  </si>
-  <si>
     <t>data("OOP_B_DIAQ") != null || data("OOP_BIRTH") != "1"</t>
   </si>
   <si>
@@ -467,39 +440,15 @@
     <t>data("OOP_B_MEDT_OU") =="1"</t>
   </si>
   <si>
-    <t>Which materials</t>
-  </si>
-  <si>
-    <t>Other materials</t>
-  </si>
-  <si>
-    <t>Which diagnostics</t>
-  </si>
-  <si>
-    <t>Other diagnostics</t>
-  </si>
-  <si>
-    <t>Medicine:</t>
-  </si>
-  <si>
     <t>Medicines</t>
   </si>
   <si>
-    <t>Which drugs</t>
-  </si>
-  <si>
     <t>Outros medicametos?</t>
   </si>
   <si>
-    <t>Other drugs</t>
-  </si>
-  <si>
     <t>data("OOP_B_OUTQ") != null || data("OOP_BIRTH") != "1"</t>
   </si>
   <si>
-    <t>Which other expenses</t>
-  </si>
-  <si>
     <t>Quais outros despesas?</t>
   </si>
   <si>
@@ -509,9 +458,6 @@
     <t>Soro</t>
   </si>
   <si>
-    <t>Oxytocina (inj. Malgueta)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Misoprostol </t>
   </si>
   <si>
@@ -554,21 +500,9 @@
     <t>Outros materiais?</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnósticos/Exames/Analises: </t>
-  </si>
-  <si>
-    <t>Prestação de serviços (pagamentos alem de materiais, diagnosticos e medicamentos)</t>
-  </si>
-  <si>
-    <t>Nemhuma</t>
-  </si>
-  <si>
     <t>Nemhuma destes</t>
   </si>
   <si>
-    <t xml:space="preserve">Caterther </t>
-  </si>
-  <si>
     <t>Ambulância</t>
   </si>
   <si>
@@ -611,18 +545,12 @@
     <t>Quais diagnósticos? (diagnósticos/exames/análises)</t>
   </si>
   <si>
-    <t>Carro de Transporte</t>
-  </si>
-  <si>
     <t>Incluindo multas se for parto domicilar</t>
   </si>
   <si>
     <t>OOP_B_TRAQ_COMP</t>
   </si>
   <si>
-    <t xml:space="preserve">Voce: Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Acompanhantes: Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
   </si>
   <si>
@@ -641,9 +569,6 @@
     <t>O parto foi num estabelecimento de saude? (pelo menos um parte)</t>
   </si>
   <si>
-    <t>Você pagou pelo parto? &lt;br&gt; (Prestacao de servico, materiais, diagnosticos, medicamentos)</t>
-  </si>
-  <si>
     <t>Cateter (urina)</t>
   </si>
   <si>
@@ -677,9 +602,6 @@
     <t>data("OOP_B_TRAQ")!=null ||data("OOP_FACILITY")=="2"</t>
   </si>
   <si>
-    <t xml:space="preserve">Se for multado na altura de vacinacao evite conta duplo </t>
-  </si>
-  <si>
     <t>data("OOP_B_TRAM")!=null ||data("OOP_FACILITY")=="2"</t>
   </si>
   <si>
@@ -722,55 +644,202 @@
     <t>data("OOP_B_MATQ") == 0 || data("OOP_B_MATT_SEL") != null || data("OOP_BIRTH") != "1" ||data("OOP_B_MATQ") == 88 || data("OOP_B_MATQ") ==77</t>
   </si>
   <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado materiais</t>
-  </si>
-  <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi feito diagnosticos/exames/analises</t>
-  </si>
-  <si>
-    <t>TDR</t>
-  </si>
-  <si>
     <t>TDR (paludismo)</t>
   </si>
   <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi receitada medicamentos</t>
-  </si>
-  <si>
     <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder</t>
   </si>
   <si>
     <t>data("OOP_B_TRAQ_COMP")!=null ||data("OOP_FACILITY")=="2"</t>
   </si>
   <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi usado nenhuma materiais</t>
-  </si>
-  <si>
-    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se nao foi acompanhada</t>
-  </si>
-  <si>
     <t>Private car</t>
   </si>
   <si>
-    <t>Carro Particular</t>
-  </si>
-  <si>
     <t>Partos domiciliares: Incluindo multas</t>
   </si>
   <si>
     <t>Prestação de serviços &lt;br&gt; (pagamentos além de materiais, diagnósticos e medicamentos)</t>
   </si>
   <si>
-    <t>Lamina</t>
-  </si>
-  <si>
-    <t>Tread</t>
-  </si>
-  <si>
     <t>Linha</t>
   </si>
   <si>
     <t>Razor blade</t>
+  </si>
+  <si>
+    <t>YesNoDontknow_local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, homebirth (no health facility involved) </t>
+  </si>
+  <si>
+    <t>Yes, at least part of the birth took place in a health facility (expulsion of the child and/or placenta)</t>
+  </si>
+  <si>
+    <t>No, homebirth but the woman sought health facility as soon as possible after the birth</t>
+  </si>
+  <si>
+    <t>Walked</t>
+  </si>
+  <si>
+    <t>Car (public transport)</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>Refused to answer</t>
+  </si>
+  <si>
+    <t>Carro de transporte</t>
+  </si>
+  <si>
+    <t>Carro particular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catheter </t>
+  </si>
+  <si>
+    <t>Suture materials</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Matérias de sutura</t>
+  </si>
+  <si>
+    <t>Lâmina</t>
+  </si>
+  <si>
+    <t>Ultrasound</t>
+  </si>
+  <si>
+    <t>Malaria rapid test</t>
+  </si>
+  <si>
+    <t>IV drip</t>
+  </si>
+  <si>
+    <t>Oxytocine ("Malgueta Injection")</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, pelo menos um parte num establisimento sanitária (explusão da criança e/ou placenta) </t>
+  </si>
+  <si>
+    <t>Não, parto em casa mas a mulher procurou um estabelisimento sanitária logo quando possível depois do parto</t>
+  </si>
+  <si>
+    <t>Não, parto domiciliar (sem envolvimento de estruturas sanitarias)</t>
+  </si>
+  <si>
+    <t>Did you pay for the birth? (incl. service provision, materials, diagnostics, medicine)</t>
+  </si>
+  <si>
+    <t>How much did you pay for the following:</t>
+  </si>
+  <si>
+    <t>Service provision (payments which don't fall under materials, diagnostics and medicines)</t>
+  </si>
+  <si>
+    <t>How much did you pay for materials?</t>
+  </si>
+  <si>
+    <t>Which materials?</t>
+  </si>
+  <si>
+    <t>Other materials?</t>
+  </si>
+  <si>
+    <t>Você pagou pelo parto? &lt;br&gt; (Prestação de serviço, materiais, diagnósticos, medicamentos)</t>
+  </si>
+  <si>
+    <t>How much did you pay for diagnostics?</t>
+  </si>
+  <si>
+    <t>Which diagnostics?</t>
+  </si>
+  <si>
+    <t>Other diagnostics?</t>
+  </si>
+  <si>
+    <t>How much did you pay for medicine?</t>
+  </si>
+  <si>
+    <t>Which medicine?</t>
+  </si>
+  <si>
+    <t>Other medicine?</t>
+  </si>
+  <si>
+    <t>How much did you pay for other expenses?</t>
+  </si>
+  <si>
+    <t>Which other expenses?</t>
+  </si>
+  <si>
+    <t>If she was fined when seeking childhood vaccinations, avoid double counting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se for multado na altura de vacinação evite conta duplo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much did you pay for transport to/from the health facility (round trip)? </t>
+  </si>
+  <si>
+    <t>Means of transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much did you pay for your birth companions' transport to/from the health facility (round trip)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você: Quanto é que pagou pelo transporte de/para o estabelecimento de saúde (ida e volta)? </t>
+  </si>
+  <si>
+    <t>Homebirths: including fines/financial penalties for the home birth</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no materials have been used</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no diagnostics performed</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no medicines prescribed/provided</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 if don't know; &lt;br&gt; 77 if refused to answer; &lt;br&gt; 88 if no further payments</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não foi usado materiais</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não foi feito diagnósticos/exames/análises</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não foi receitada medicamentos</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não tinha outros despesas</t>
+  </si>
+  <si>
+    <t>Indicate: &lt;br&gt; 33 don't know; &lt;br&gt; 77 refused to answer</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 don't know; &lt;br&gt; 77 refused to answer; &lt;br&gt; 88 was not accompanied</t>
+  </si>
+  <si>
+    <t>Indique: &lt;br&gt; 33 se não sabe; &lt;br&gt; 77 se recusou-se a responder; &lt;br&gt; 88 se não foi acompanhada</t>
+  </si>
+  <si>
+    <t>Including fines in case of a home birth</t>
   </si>
 </sst>
 </file>
@@ -849,7 +918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +955,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -911,7 +986,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -937,6 +1012,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1288,10 +1365,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1337,9 +1414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="E1" zoomScale="62" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1350,12 +1427,12 @@
     <col min="4" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" customWidth="1"/>
     <col min="8" max="8" width="33.54296875" customWidth="1"/>
     <col min="9" max="9" width="5.90625" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" customWidth="1"/>
-    <col min="12" max="12" width="40.453125" customWidth="1"/>
+    <col min="12" max="12" width="45.08984375" customWidth="1"/>
     <col min="13" max="13" width="45.1796875" customWidth="1"/>
     <col min="14" max="14" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.26953125" bestFit="1" customWidth="1"/>
@@ -1443,36 +1520,39 @@
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>149</v>
+      </c>
+      <c r="L3" t="s">
+        <v>251</v>
       </c>
       <c r="M3" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
+      <c r="E4" s="19" t="s">
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -1500,7 +1580,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -1511,19 +1591,22 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>252</v>
       </c>
       <c r="M9" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -1531,47 +1614,50 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>253</v>
       </c>
       <c r="M10" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -1582,24 +1668,24 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
@@ -1607,16 +1693,16 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
@@ -1647,30 +1733,32 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="L21" t="s">
+        <v>254</v>
+      </c>
       <c r="M21" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1686,24 +1774,24 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L23" s="15"/>
     </row>
@@ -1717,27 +1805,27 @@
         <v>47</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1770,18 +1858,18 @@
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="L27" s="15"/>
     </row>
@@ -1853,30 +1941,32 @@
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
       <c r="M32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -1892,24 +1982,24 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="L34" s="17"/>
     </row>
@@ -1923,27 +2013,27 @@
         <v>47</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="L35" s="17"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -1976,18 +2066,18 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="L38" s="17"/>
     </row>
@@ -2059,33 +2149,38 @@
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L43" s="18"/>
-      <c r="M43" t="s">
-        <v>232</v>
+        <v>133</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="O43" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2105,18 +2200,18 @@
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L45" s="18"/>
     </row>
@@ -2128,9 +2223,11 @@
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="G46" s="18" t="s">
+        <v>245</v>
+      </c>
       <c r="H46" s="18" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -2179,7 +2276,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
@@ -2192,10 +2289,10 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H52" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
@@ -2203,53 +2300,56 @@
         <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="H53" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="K53" t="s">
-        <v>209</v>
+        <v>184</v>
+      </c>
+      <c r="L53" t="s">
+        <v>261</v>
       </c>
       <c r="M53" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K56" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
@@ -2257,22 +2357,25 @@
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G57" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="H57" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="K57" t="s">
-        <v>231</v>
+        <v>201</v>
+      </c>
+      <c r="L57" t="s">
+        <v>262</v>
       </c>
       <c r="M57" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="U57" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
@@ -2295,13 +2398,13 @@
         <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G61" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H61" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
@@ -2317,11 +2420,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D46:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2393,119 +2496,119 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B10" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -2513,149 +2616,149 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B14" t="str">
         <f>"66"</f>
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B15" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B17" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B19" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B20" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B21" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B22" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B23" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B24" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B25" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
@@ -2663,17 +2766,17 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B26" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2681,89 +2784,89 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B29" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B30" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B31" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B32" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B33" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B34" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -2771,17 +2874,17 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B35" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2791,104 +2894,104 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B37" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B38" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B39" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B40" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B41" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B42" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B43" t="str">
         <f>"33"</f>
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
@@ -2896,17 +2999,17 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B44" t="str">
         <f>"77"</f>
         <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2914,63 +3017,115 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
     </row>
@@ -2987,6 +3142,7 @@
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
@@ -2999,7 +3155,6 @@
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="5"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
@@ -3007,16 +3162,17 @@
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B76" s="5"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
@@ -3026,20 +3182,20 @@
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B80" s="5"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C82" s="7"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B84" s="5"/>
-      <c r="C84" s="7"/>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C83" s="7"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="5"/>
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
@@ -3052,17 +3208,17 @@
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B89" s="5"/>
       <c r="C89" s="7"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="5"/>
       <c r="C90" s="7"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C91" s="7"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B94" s="5"/>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C92" s="7"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
@@ -3111,6 +3267,9 @@
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3355,7 +3514,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -3366,7 +3525,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -3377,7 +3536,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3388,10 +3547,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3399,7 +3558,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -3410,7 +3569,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -3421,7 +3580,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -3432,10 +3591,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3443,7 +3602,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -3454,7 +3613,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -3465,7 +3624,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -3476,10 +3635,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3487,7 +3646,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -3498,7 +3657,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -3509,7 +3668,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -3520,7 +3679,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -3531,7 +3690,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -3542,7 +3701,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3553,7 +3712,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -3564,10 +3723,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3575,10 +3734,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3586,7 +3745,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>54</v>
@@ -3597,7 +3756,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -3608,7 +3767,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>

--- a/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
+++ b/app/config/tables/MIF_V_OOP/forms/MIF_V_OOP/MIF_V_OOP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EF58EB-3D57-4A99-85CE-245312277B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD9517-1FF5-4E0A-BE63-412614773E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -755,9 +755,6 @@
     <t>Other materials?</t>
   </si>
   <si>
-    <t>Você pagou pelo parto? &lt;br&gt; (Prestação de serviço, materiais, diagnósticos, medicamentos)</t>
-  </si>
-  <si>
     <t>How much did you pay for diagnostics?</t>
   </si>
   <si>
@@ -840,6 +837,9 @@
   </si>
   <si>
     <t>Including fines in case of a home birth</t>
+  </si>
+  <si>
+    <t>Você pagou pelo parto? &lt;br&gt; ( &lt;span style="color: red;"&gt; Prestação de serviço, materiais, diagnósticos, medicamentos &lt;/span&gt;)</t>
   </si>
 </sst>
 </file>
@@ -1414,9 +1414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="62" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="142" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,14 +1522,14 @@
       <c r="G3" t="s">
         <v>230</v>
       </c>
-      <c r="H3" t="s">
-        <v>236</v>
+      <c r="H3" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="K3" t="s">
         <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M3" t="s">
         <v>203</v>
@@ -1548,7 +1548,7 @@
       <c r="G4" t="s">
         <v>169</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="20" t="s">
         <v>173</v>
       </c>
       <c r="K4" t="s">
@@ -1603,7 +1603,7 @@
         <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M9" t="s">
         <v>200</v>
@@ -1626,10 +1626,10 @@
         <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -1736,7 +1736,7 @@
         <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
         <v>159</v>
@@ -1747,10 +1747,10 @@
         <v>123</v>
       </c>
       <c r="L21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>165</v>
@@ -1808,7 +1808,7 @@
         <v>125</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>160</v>
@@ -1861,7 +1861,7 @@
         <v>91</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>161</v>
@@ -1944,7 +1944,7 @@
         <v>93</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>162</v>
@@ -1955,10 +1955,10 @@
         <v>127</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
@@ -1991,7 +1991,7 @@
         <v>128</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>94</v>
@@ -2016,7 +2016,7 @@
         <v>129</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>132</v>
@@ -2069,7 +2069,7 @@
         <v>92</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>94</v>
@@ -2152,7 +2152,7 @@
         <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
         <v>163</v>
@@ -2163,13 +2163,13 @@
         <v>133</v>
       </c>
       <c r="L43" t="s">
-        <v>256</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>260</v>
+        <v>255</v>
+      </c>
+      <c r="M43" t="s">
+        <v>259</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O43" t="s">
         <v>166</v>
@@ -2203,7 +2203,7 @@
         <v>106</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>134</v>
@@ -2224,10 +2224,10 @@
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>245</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>246</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -2303,16 +2303,16 @@
         <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K53" t="s">
         <v>184</v>
       </c>
       <c r="L53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M53" t="s">
         <v>200</v>
@@ -2329,7 +2329,7 @@
         <v>102</v>
       </c>
       <c r="G55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H55" t="s">
         <v>96</v>
@@ -2360,7 +2360,7 @@
         <v>167</v>
       </c>
       <c r="G57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H57" t="s">
         <v>168</v>
@@ -2369,10 +2369,10 @@
         <v>201</v>
       </c>
       <c r="L57" t="s">
+        <v>261</v>
+      </c>
+      <c r="M57" t="s">
         <v>262</v>
-      </c>
-      <c r="M57" t="s">
-        <v>263</v>
       </c>
       <c r="U57" t="s">
         <v>187</v>
@@ -2422,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D49" sqref="D46:D49"/>
     </sheetView>
@@ -3027,7 +3027,7 @@
       <c r="C46" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       <c r="C47" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="C48" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       <c r="C49" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" t="s">
         <v>53</v>
       </c>
     </row>
